--- a/Code/Results/Cases/Case_2_133/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_133/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.014647372381726</v>
+        <v>1.038911043077652</v>
       </c>
       <c r="D2">
-        <v>1.030740821194919</v>
+        <v>1.042404171706192</v>
       </c>
       <c r="E2">
-        <v>1.012503461979983</v>
+        <v>1.054705471781406</v>
       </c>
       <c r="F2">
-        <v>1.018278781437358</v>
+        <v>1.060965707906929</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051854842936017</v>
+        <v>1.041008804662115</v>
       </c>
       <c r="J2">
-        <v>1.036398638191138</v>
+        <v>1.044005915439567</v>
       </c>
       <c r="K2">
-        <v>1.041787876619752</v>
+        <v>1.045180955100124</v>
       </c>
       <c r="L2">
-        <v>1.023791309263353</v>
+        <v>1.05744794576024</v>
       </c>
       <c r="M2">
-        <v>1.02948920445165</v>
+        <v>1.063691052343577</v>
       </c>
       <c r="N2">
-        <v>1.015720192667557</v>
+        <v>1.01856014259076</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.019830171193578</v>
+        <v>1.03994571168146</v>
       </c>
       <c r="D3">
-        <v>1.034732749284554</v>
+        <v>1.043208193177583</v>
       </c>
       <c r="E3">
-        <v>1.018451149872943</v>
+        <v>1.056020900551643</v>
       </c>
       <c r="F3">
-        <v>1.024629131673543</v>
+        <v>1.062366259014263</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053834083580129</v>
+        <v>1.041322895781242</v>
       </c>
       <c r="J3">
-        <v>1.039794465333985</v>
+        <v>1.044685145701347</v>
       </c>
       <c r="K3">
-        <v>1.044939699047705</v>
+        <v>1.045795819041985</v>
       </c>
       <c r="L3">
-        <v>1.028853264963421</v>
+        <v>1.058575388386204</v>
       </c>
       <c r="M3">
-        <v>1.034956285814493</v>
+        <v>1.064904654572703</v>
       </c>
       <c r="N3">
-        <v>1.016870197545517</v>
+        <v>1.018788306446662</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.023100974707489</v>
+        <v>1.04061470169102</v>
       </c>
       <c r="D4">
-        <v>1.03725333209907</v>
+        <v>1.043727901231037</v>
       </c>
       <c r="E4">
-        <v>1.022212677907081</v>
+        <v>1.056872493778473</v>
       </c>
       <c r="F4">
-        <v>1.028644466876756</v>
+        <v>1.063272942260616</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055070825773129</v>
+        <v>1.041524482446008</v>
       </c>
       <c r="J4">
-        <v>1.041931662349147</v>
+        <v>1.045123563728434</v>
       </c>
       <c r="K4">
-        <v>1.046922008263065</v>
+        <v>1.046192478676446</v>
       </c>
       <c r="L4">
-        <v>1.032050208082215</v>
+        <v>1.059304795314647</v>
       </c>
       <c r="M4">
-        <v>1.038409046179252</v>
+        <v>1.065689838205654</v>
       </c>
       <c r="N4">
-        <v>1.01759378616208</v>
+        <v>1.018935504936624</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.024457013981735</v>
+        <v>1.040895823899982</v>
       </c>
       <c r="D5">
-        <v>1.038298600692464</v>
+        <v>1.043946255441363</v>
       </c>
       <c r="E5">
-        <v>1.023774175837147</v>
+        <v>1.057230607336025</v>
       </c>
       <c r="F5">
-        <v>1.03031112665838</v>
+        <v>1.063654218242449</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055580565334511</v>
+        <v>1.041608834313958</v>
       </c>
       <c r="J5">
-        <v>1.042816281690145</v>
+        <v>1.045307614287109</v>
       </c>
       <c r="K5">
-        <v>1.047742186774741</v>
+        <v>1.046358947713282</v>
       </c>
       <c r="L5">
-        <v>1.033376265571053</v>
+        <v>1.059611410573143</v>
       </c>
       <c r="M5">
-        <v>1.039841200289697</v>
+        <v>1.066019908196712</v>
       </c>
       <c r="N5">
-        <v>1.017893241988275</v>
+        <v>1.018997282216682</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.024683607261212</v>
+        <v>1.040943018473727</v>
       </c>
       <c r="D6">
-        <v>1.038473278274317</v>
+        <v>1.043982910390022</v>
       </c>
       <c r="E6">
-        <v>1.024035221752601</v>
+        <v>1.05729074233663</v>
       </c>
       <c r="F6">
-        <v>1.030589741581571</v>
+        <v>1.06371824247148</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055665564889238</v>
+        <v>1.041622974195533</v>
       </c>
       <c r="J6">
-        <v>1.042964015501746</v>
+        <v>1.045338501929029</v>
       </c>
       <c r="K6">
-        <v>1.047879138981745</v>
+        <v>1.046386881793219</v>
       </c>
       <c r="L6">
-        <v>1.033597888326633</v>
+        <v>1.059662891081598</v>
       </c>
       <c r="M6">
-        <v>1.040080553995376</v>
+        <v>1.066075327223564</v>
       </c>
       <c r="N6">
-        <v>1.017943248869887</v>
+        <v>1.019007648740935</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.023119167806592</v>
+        <v>1.04061845853488</v>
       </c>
       <c r="D7">
-        <v>1.037267354822338</v>
+        <v>1.043730819405604</v>
       </c>
       <c r="E7">
-        <v>1.022233619453182</v>
+        <v>1.056877278498457</v>
       </c>
       <c r="F7">
-        <v>1.028666819550587</v>
+        <v>1.063278036467731</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05507767653475</v>
+        <v>1.041525611112341</v>
       </c>
       <c r="J7">
-        <v>1.041943536443404</v>
+        <v>1.045126024043612</v>
       </c>
       <c r="K7">
-        <v>1.04693301870364</v>
+        <v>1.046194704170011</v>
       </c>
       <c r="L7">
-        <v>1.032067996323413</v>
+        <v>1.059308892427663</v>
       </c>
       <c r="M7">
-        <v>1.038428257698441</v>
+        <v>1.065694248697498</v>
       </c>
       <c r="N7">
-        <v>1.017597805907684</v>
+        <v>1.018936330820008</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.016416580599531</v>
+        <v>1.039260820238153</v>
       </c>
       <c r="D8">
-        <v>1.032103199024125</v>
+        <v>1.0426760079391</v>
       </c>
       <c r="E8">
-        <v>1.014532143667006</v>
+        <v>1.055149941063048</v>
       </c>
       <c r="F8">
-        <v>1.020444987853959</v>
+        <v>1.061438942660979</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052533048372991</v>
+        <v>1.041115295232846</v>
       </c>
       <c r="J8">
-        <v>1.037559058510714</v>
+        <v>1.044235690301386</v>
       </c>
       <c r="K8">
-        <v>1.042865185847477</v>
+        <v>1.045388999540449</v>
       </c>
       <c r="L8">
-        <v>1.025518801096229</v>
+        <v>1.057828997260195</v>
       </c>
       <c r="M8">
-        <v>1.031354961102486</v>
+        <v>1.064101216602942</v>
       </c>
       <c r="N8">
-        <v>1.016113205521803</v>
+        <v>1.018637342535583</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.003931839249214</v>
+        <v>1.036864545309502</v>
       </c>
       <c r="D9">
-        <v>1.022497403918614</v>
+        <v>1.04081309861732</v>
       </c>
       <c r="E9">
-        <v>1.000246814710272</v>
+        <v>1.052109276945612</v>
       </c>
       <c r="F9">
-        <v>1.005187411273008</v>
+        <v>1.058201420968949</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047696085639715</v>
+        <v>1.040379611823242</v>
       </c>
       <c r="J9">
-        <v>1.029346514063183</v>
+        <v>1.042658445853765</v>
       </c>
       <c r="K9">
-        <v>1.035235724862746</v>
+        <v>1.04396005497664</v>
       </c>
       <c r="L9">
-        <v>1.013335888786613</v>
+        <v>1.055220184424684</v>
       </c>
       <c r="M9">
-        <v>1.018196883290663</v>
+        <v>1.06129323603498</v>
       </c>
       <c r="N9">
-        <v>1.013331261625321</v>
+        <v>1.018107122607234</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9950952163562686</v>
+        <v>1.035264320691502</v>
       </c>
       <c r="D10">
-        <v>1.015711628599584</v>
+        <v>1.039568330199702</v>
       </c>
       <c r="E10">
-        <v>0.9901698987794638</v>
+        <v>1.050084108500756</v>
       </c>
       <c r="F10">
-        <v>0.9944195044404296</v>
+        <v>1.056045052878393</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044209247709773</v>
+        <v>1.039880635844456</v>
       </c>
       <c r="J10">
-        <v>1.023504794707838</v>
+        <v>1.041601297284982</v>
       </c>
       <c r="K10">
-        <v>1.029802883265788</v>
+        <v>1.043001227810107</v>
       </c>
       <c r="L10">
-        <v>1.004718936323828</v>
+        <v>1.053480129579491</v>
       </c>
       <c r="M10">
-        <v>1.008890252799523</v>
+        <v>1.059420529078927</v>
       </c>
       <c r="N10">
-        <v>1.011352064525384</v>
+        <v>1.017751374320942</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9911319964357912</v>
+        <v>1.034570749789636</v>
       </c>
       <c r="D11">
-        <v>1.012672317497681</v>
+        <v>1.039028658119541</v>
       </c>
       <c r="E11">
-        <v>0.9856568664727701</v>
+        <v>1.049207612408062</v>
       </c>
       <c r="F11">
-        <v>0.9895956845666714</v>
+        <v>1.055111752951329</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042631007653451</v>
+        <v>1.039662549511996</v>
       </c>
       <c r="J11">
-        <v>1.020878405512889</v>
+        <v>1.041142192201742</v>
       </c>
       <c r="K11">
-        <v>1.027359145021033</v>
+        <v>1.042584570129253</v>
       </c>
       <c r="L11">
-        <v>1.00085443895804</v>
+        <v>1.052726433944384</v>
       </c>
       <c r="M11">
-        <v>1.004716514995291</v>
+        <v>1.058609422601158</v>
       </c>
       <c r="N11">
-        <v>1.010462247800434</v>
+        <v>1.017596791653954</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9896378856903676</v>
+        <v>1.034313025759595</v>
       </c>
       <c r="D12">
-        <v>1.011527221470575</v>
+        <v>1.038828097502085</v>
       </c>
       <c r="E12">
-        <v>0.9839562940708227</v>
+        <v>1.048882101924778</v>
       </c>
       <c r="F12">
-        <v>0.9877777956400828</v>
+        <v>1.054765143777901</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042033912804621</v>
+        <v>1.03958123772208</v>
       </c>
       <c r="J12">
-        <v>1.019887356561594</v>
+        <v>1.040971456148142</v>
       </c>
       <c r="K12">
-        <v>1.026436860856598</v>
+        <v>1.042429582149555</v>
       </c>
       <c r="L12">
-        <v>0.9993974590770056</v>
+        <v>1.052446438883318</v>
       </c>
       <c r="M12">
-        <v>1.003142960600936</v>
+        <v>1.058308106768867</v>
       </c>
       <c r="N12">
-        <v>1.010126492679336</v>
+        <v>1.017539291256664</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9899593971852936</v>
+        <v>1.034368313026433</v>
       </c>
       <c r="D13">
-        <v>1.011773596527951</v>
+        <v>1.038871123073796</v>
       </c>
       <c r="E13">
-        <v>0.9843221990807871</v>
+        <v>1.048951922401132</v>
       </c>
       <c r="F13">
-        <v>0.988168952677338</v>
+        <v>1.054839489962539</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042162493432535</v>
+        <v>1.039598693176507</v>
       </c>
       <c r="J13">
-        <v>1.02010065690734</v>
+        <v>1.04100808885395</v>
       </c>
       <c r="K13">
-        <v>1.026635367946421</v>
+        <v>1.042462837686563</v>
       </c>
       <c r="L13">
-        <v>0.9997109864679037</v>
+        <v>1.052506500582096</v>
       </c>
       <c r="M13">
-        <v>1.003481572927586</v>
+        <v>1.058372741658186</v>
       </c>
       <c r="N13">
-        <v>1.010198755567684</v>
+        <v>1.017551628978672</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9910089501785081</v>
+        <v>1.034549448307084</v>
       </c>
       <c r="D14">
-        <v>1.012577999176993</v>
+        <v>1.039012081806842</v>
       </c>
       <c r="E14">
-        <v>0.9855168016514526</v>
+        <v>1.049180704420942</v>
       </c>
       <c r="F14">
-        <v>0.9894459614331722</v>
+        <v>1.055083100925028</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042581876866753</v>
+        <v>1.039655834474355</v>
       </c>
       <c r="J14">
-        <v>1.020796806829082</v>
+        <v>1.041128083271832</v>
       </c>
       <c r="K14">
-        <v>1.027283211207023</v>
+        <v>1.042571763321959</v>
       </c>
       <c r="L14">
-        <v>1.000734453063983</v>
+        <v>1.052703290276094</v>
       </c>
       <c r="M14">
-        <v>1.004586928583381</v>
+        <v>1.058584516466711</v>
       </c>
       <c r="N14">
-        <v>1.010434602906239</v>
+        <v>1.01759204031708</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9916526550142974</v>
+        <v>1.034661038320525</v>
       </c>
       <c r="D15">
-        <v>1.013071445843002</v>
+        <v>1.039098917557962</v>
       </c>
       <c r="E15">
-        <v>0.9862495696796582</v>
+        <v>1.049321672322091</v>
       </c>
       <c r="F15">
-        <v>0.9902292497215919</v>
+        <v>1.055233205525244</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042838814460685</v>
+        <v>1.039691000711809</v>
       </c>
       <c r="J15">
-        <v>1.021223645601841</v>
+        <v>1.04120198874076</v>
       </c>
       <c r="K15">
-        <v>1.027680411040765</v>
+        <v>1.042638846466279</v>
       </c>
       <c r="L15">
-        <v>1.001362143633358</v>
+        <v>1.052824533656408</v>
       </c>
       <c r="M15">
-        <v>1.00526484362135</v>
+        <v>1.058714993220637</v>
       </c>
       <c r="N15">
-        <v>1.010579212503103</v>
+        <v>1.017616928269687</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9953552390777943</v>
+        <v>1.035310336627259</v>
       </c>
       <c r="D16">
-        <v>1.015911127330922</v>
+        <v>1.039604132120346</v>
       </c>
       <c r="E16">
-        <v>0.9904661154867926</v>
+        <v>1.050142287135646</v>
       </c>
       <c r="F16">
-        <v>0.9947360917508371</v>
+        <v>1.056107001516976</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044312499940533</v>
+        <v>1.039895066790161</v>
       </c>
       <c r="J16">
-        <v>1.02367698038489</v>
+        <v>1.041631738012467</v>
       </c>
       <c r="K16">
-        <v>1.029963071569666</v>
+        <v>1.043028848797912</v>
       </c>
       <c r="L16">
-        <v>1.004972476527155</v>
+        <v>1.053530144570399</v>
       </c>
       <c r="M16">
-        <v>1.009164083221396</v>
+        <v>1.059474354828648</v>
       </c>
       <c r="N16">
-        <v>1.011410401788399</v>
+        <v>1.017761622042801</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9976401533356942</v>
+        <v>1.035717445863195</v>
       </c>
       <c r="D17">
-        <v>1.017664671040393</v>
+        <v>1.039920857802078</v>
       </c>
       <c r="E17">
-        <v>0.9930697945276618</v>
+        <v>1.050657146042095</v>
       </c>
       <c r="F17">
-        <v>0.99751867292158</v>
+        <v>1.056655221172035</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045218188988623</v>
+        <v>1.040022529257054</v>
       </c>
       <c r="J17">
-        <v>1.025189319999023</v>
+        <v>1.041900945676749</v>
       </c>
       <c r="K17">
-        <v>1.031369904925133</v>
+        <v>1.043273090561203</v>
       </c>
       <c r="L17">
-        <v>1.007200436354501</v>
+        <v>1.053972689298759</v>
       </c>
       <c r="M17">
-        <v>1.011570349117789</v>
+        <v>1.059950623483745</v>
       </c>
       <c r="N17">
-        <v>1.011922791704106</v>
+        <v>1.017852239568906</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9989597990423007</v>
+        <v>1.035954841902236</v>
       </c>
       <c r="D18">
-        <v>1.01867780686519</v>
+        <v>1.040105533030014</v>
       </c>
       <c r="E18">
-        <v>0.9945741629996401</v>
+        <v>1.050957494807235</v>
       </c>
       <c r="F18">
-        <v>0.9991262841695066</v>
+        <v>1.05697502933527</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045739903377464</v>
+        <v>1.040096680460088</v>
       </c>
       <c r="J18">
-        <v>1.026062161596396</v>
+        <v>1.04205783947966</v>
       </c>
       <c r="K18">
-        <v>1.032181741561504</v>
+        <v>1.043415409965244</v>
       </c>
       <c r="L18">
-        <v>1.008487215360768</v>
+        <v>1.054230795145763</v>
       </c>
       <c r="M18">
-        <v>1.01296011614868</v>
+        <v>1.060228402672919</v>
       </c>
       <c r="N18">
-        <v>1.012218516526638</v>
+        <v>1.017905043022653</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9994075822656887</v>
+        <v>1.036035777019028</v>
       </c>
       <c r="D19">
-        <v>1.019021647081218</v>
+        <v>1.040168491410101</v>
       </c>
       <c r="E19">
-        <v>0.9950847362387968</v>
+        <v>1.051059912902821</v>
       </c>
       <c r="F19">
-        <v>0.9996718765276229</v>
+        <v>1.057084082696687</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045916698992878</v>
+        <v>1.040121930955407</v>
       </c>
       <c r="J19">
-        <v>1.026358230881682</v>
+        <v>1.042111314104014</v>
       </c>
       <c r="K19">
-        <v>1.032457098237075</v>
+        <v>1.043463913018566</v>
       </c>
       <c r="L19">
-        <v>1.008923854129955</v>
+        <v>1.054318798753256</v>
       </c>
       <c r="M19">
-        <v>1.013431702359376</v>
+        <v>1.060323114850352</v>
       </c>
       <c r="N19">
-        <v>1.012318826741641</v>
+        <v>1.017923038784688</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9973963691708314</v>
+        <v>1.035673773512637</v>
       </c>
       <c r="D20">
-        <v>1.017477540102692</v>
+        <v>1.039886882911561</v>
       </c>
       <c r="E20">
-        <v>0.992791936991369</v>
+        <v>1.050601902410776</v>
       </c>
       <c r="F20">
-        <v>0.9972217364037111</v>
+        <v>1.056596398183484</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045121699595594</v>
+        <v>1.0400088739644</v>
       </c>
       <c r="J20">
-        <v>1.025028026678519</v>
+        <v>1.041872075742769</v>
       </c>
       <c r="K20">
-        <v>1.031219875544336</v>
+        <v>1.04324690049368</v>
       </c>
       <c r="L20">
-        <v>1.00696272679704</v>
+        <v>1.053925210837293</v>
       </c>
       <c r="M20">
-        <v>1.011313614780784</v>
+        <v>1.0598995264807</v>
       </c>
       <c r="N20">
-        <v>1.011868144402126</v>
+        <v>1.017842522568195</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9907005022635326</v>
+        <v>1.034496111277817</v>
       </c>
       <c r="D21">
-        <v>1.012341577103557</v>
+        <v>1.038970575802208</v>
       </c>
       <c r="E21">
-        <v>0.9851657047656516</v>
+        <v>1.049113332210008</v>
       </c>
       <c r="F21">
-        <v>0.9890706509321924</v>
+        <v>1.055011361939991</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042458683853401</v>
+        <v>1.039639016203711</v>
       </c>
       <c r="J21">
-        <v>1.020592243608169</v>
+        <v>1.041092753543517</v>
       </c>
       <c r="K21">
-        <v>1.027092847028339</v>
+        <v>1.042539693590967</v>
       </c>
       <c r="L21">
-        <v>1.000433674937925</v>
+        <v>1.052645341713821</v>
       </c>
       <c r="M21">
-        <v>1.004262084326905</v>
+        <v>1.058522155047301</v>
       </c>
       <c r="N21">
-        <v>1.010365298945335</v>
+        <v>1.017580142436779</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9863624844193135</v>
+        <v>1.033755083775325</v>
       </c>
       <c r="D22">
-        <v>1.00901833832075</v>
+        <v>1.038393864650086</v>
       </c>
       <c r="E22">
-        <v>0.9802295993981882</v>
+        <v>1.048177749925057</v>
       </c>
       <c r="F22">
-        <v>0.9837936166994737</v>
+        <v>1.054015132061217</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040721139153896</v>
+        <v>1.039404708196248</v>
       </c>
       <c r="J22">
-        <v>1.017713134856267</v>
+        <v>1.040601582183668</v>
       </c>
       <c r="K22">
-        <v>1.024413232448625</v>
+        <v>1.042093755421613</v>
       </c>
       <c r="L22">
-        <v>0.9962031560836343</v>
+        <v>1.051840410478646</v>
       </c>
       <c r="M22">
-        <v>0.9996931098993639</v>
+        <v>1.057655944330071</v>
       </c>
       <c r="N22">
-        <v>1.009389922995648</v>
+        <v>1.017414701937519</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9886748007388118</v>
+        <v>1.034147972314775</v>
       </c>
       <c r="D23">
-        <v>1.010789317853237</v>
+        <v>1.038699646423605</v>
       </c>
       <c r="E23">
-        <v>0.9828603352148483</v>
+        <v>1.048673688550943</v>
       </c>
       <c r="F23">
-        <v>0.9866061707528443</v>
+        <v>1.054543220767422</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041648446127561</v>
+        <v>1.039529086610953</v>
       </c>
       <c r="J23">
-        <v>1.019248286435463</v>
+        <v>1.040862073568876</v>
       </c>
       <c r="K23">
-        <v>1.02584209139811</v>
+        <v>1.042330278056443</v>
       </c>
       <c r="L23">
-        <v>0.9984582680127746</v>
+        <v>1.052267142191559</v>
       </c>
       <c r="M23">
-        <v>1.002128628509295</v>
+        <v>1.058115159204251</v>
       </c>
       <c r="N23">
-        <v>1.009909987778699</v>
+        <v>1.01750244985054</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9975065651379167</v>
+        <v>1.035693507365003</v>
       </c>
       <c r="D24">
-        <v>1.017562126349599</v>
+        <v>1.039902234904337</v>
       </c>
       <c r="E24">
-        <v>0.9929175329556387</v>
+        <v>1.050626864504616</v>
       </c>
       <c r="F24">
-        <v>0.9973559567519121</v>
+        <v>1.056622977632763</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045165319223887</v>
+        <v>1.040015044807258</v>
       </c>
       <c r="J24">
-        <v>1.025100936797799</v>
+        <v>1.041885121226106</v>
       </c>
       <c r="K24">
-        <v>1.031287694326419</v>
+        <v>1.043258735098494</v>
       </c>
       <c r="L24">
-        <v>1.007070176810928</v>
+        <v>1.05394666438073</v>
       </c>
       <c r="M24">
-        <v>1.011429664401414</v>
+        <v>1.059922615078799</v>
       </c>
       <c r="N24">
-        <v>1.011892846857401</v>
+        <v>1.01784691342381</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.007245210894774</v>
+        <v>1.037484512910459</v>
       </c>
       <c r="D25">
-        <v>1.02504477358815</v>
+        <v>1.04129520337569</v>
       </c>
       <c r="E25">
-        <v>1.004031700008105</v>
+        <v>1.052895007645463</v>
       </c>
       <c r="F25">
-        <v>1.009230749819594</v>
+        <v>1.059038036558031</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048990820108336</v>
+        <v>1.040571304478557</v>
       </c>
       <c r="J25">
-        <v>1.031531180975649</v>
+        <v>1.043067195399251</v>
       </c>
       <c r="K25">
-        <v>1.037266355427887</v>
+        <v>1.044330562354232</v>
       </c>
       <c r="L25">
-        <v>1.016567749774274</v>
+        <v>1.05589476387239</v>
       </c>
       <c r="M25">
-        <v>1.021687440560131</v>
+        <v>1.062019282539331</v>
       </c>
       <c r="N25">
-        <v>1.014071394224962</v>
+        <v>1.018244596505922</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_133/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_133/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038911043077652</v>
+        <v>1.014647372381725</v>
       </c>
       <c r="D2">
-        <v>1.042404171706192</v>
+        <v>1.030740821194918</v>
       </c>
       <c r="E2">
-        <v>1.054705471781406</v>
+        <v>1.012503461979981</v>
       </c>
       <c r="F2">
-        <v>1.060965707906929</v>
+        <v>1.018278781437356</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041008804662115</v>
+        <v>1.051854842936017</v>
       </c>
       <c r="J2">
-        <v>1.044005915439567</v>
+        <v>1.036398638191137</v>
       </c>
       <c r="K2">
-        <v>1.045180955100124</v>
+        <v>1.041787876619751</v>
       </c>
       <c r="L2">
-        <v>1.05744794576024</v>
+        <v>1.023791309263351</v>
       </c>
       <c r="M2">
-        <v>1.063691052343577</v>
+        <v>1.029489204451648</v>
       </c>
       <c r="N2">
-        <v>1.01856014259076</v>
+        <v>1.015720192667557</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03994571168146</v>
+        <v>1.019830171193579</v>
       </c>
       <c r="D3">
-        <v>1.043208193177583</v>
+        <v>1.034732749284555</v>
       </c>
       <c r="E3">
-        <v>1.056020900551643</v>
+        <v>1.018451149872943</v>
       </c>
       <c r="F3">
-        <v>1.062366259014263</v>
+        <v>1.024629131673543</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041322895781242</v>
+        <v>1.05383408358013</v>
       </c>
       <c r="J3">
-        <v>1.044685145701347</v>
+        <v>1.039794465333985</v>
       </c>
       <c r="K3">
-        <v>1.045795819041985</v>
+        <v>1.044939699047706</v>
       </c>
       <c r="L3">
-        <v>1.058575388386204</v>
+        <v>1.028853264963421</v>
       </c>
       <c r="M3">
-        <v>1.064904654572703</v>
+        <v>1.034956285814493</v>
       </c>
       <c r="N3">
-        <v>1.018788306446662</v>
+        <v>1.016870197545517</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04061470169102</v>
+        <v>1.023100974707491</v>
       </c>
       <c r="D4">
-        <v>1.043727901231037</v>
+        <v>1.037253332099072</v>
       </c>
       <c r="E4">
-        <v>1.056872493778473</v>
+        <v>1.022212677907081</v>
       </c>
       <c r="F4">
-        <v>1.063272942260616</v>
+        <v>1.028644466876757</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041524482446008</v>
+        <v>1.05507082577313</v>
       </c>
       <c r="J4">
-        <v>1.045123563728434</v>
+        <v>1.041931662349149</v>
       </c>
       <c r="K4">
-        <v>1.046192478676446</v>
+        <v>1.046922008263066</v>
       </c>
       <c r="L4">
-        <v>1.059304795314647</v>
+        <v>1.032050208082216</v>
       </c>
       <c r="M4">
-        <v>1.065689838205654</v>
+        <v>1.038409046179252</v>
       </c>
       <c r="N4">
-        <v>1.018935504936624</v>
+        <v>1.01759378616208</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040895823899982</v>
+        <v>1.024457013981735</v>
       </c>
       <c r="D5">
-        <v>1.043946255441363</v>
+        <v>1.038298600692464</v>
       </c>
       <c r="E5">
-        <v>1.057230607336025</v>
+        <v>1.023774175837147</v>
       </c>
       <c r="F5">
-        <v>1.063654218242449</v>
+        <v>1.030311126658381</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041608834313958</v>
+        <v>1.05558056533451</v>
       </c>
       <c r="J5">
-        <v>1.045307614287109</v>
+        <v>1.042816281690145</v>
       </c>
       <c r="K5">
-        <v>1.046358947713282</v>
+        <v>1.04774218677474</v>
       </c>
       <c r="L5">
-        <v>1.059611410573143</v>
+        <v>1.033376265571053</v>
       </c>
       <c r="M5">
-        <v>1.066019908196712</v>
+        <v>1.039841200289697</v>
       </c>
       <c r="N5">
-        <v>1.018997282216682</v>
+        <v>1.017893241988275</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040943018473727</v>
+        <v>1.024683607261211</v>
       </c>
       <c r="D6">
-        <v>1.043982910390022</v>
+        <v>1.038473278274316</v>
       </c>
       <c r="E6">
-        <v>1.05729074233663</v>
+        <v>1.0240352217526</v>
       </c>
       <c r="F6">
-        <v>1.06371824247148</v>
+        <v>1.030589741581569</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041622974195533</v>
+        <v>1.055665564889237</v>
       </c>
       <c r="J6">
-        <v>1.045338501929029</v>
+        <v>1.042964015501745</v>
       </c>
       <c r="K6">
-        <v>1.046386881793219</v>
+        <v>1.047879138981744</v>
       </c>
       <c r="L6">
-        <v>1.059662891081598</v>
+        <v>1.033597888326632</v>
       </c>
       <c r="M6">
-        <v>1.066075327223564</v>
+        <v>1.040080553995375</v>
       </c>
       <c r="N6">
-        <v>1.019007648740935</v>
+        <v>1.017943248869887</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04061845853488</v>
+        <v>1.023119167806592</v>
       </c>
       <c r="D7">
-        <v>1.043730819405604</v>
+        <v>1.037267354822339</v>
       </c>
       <c r="E7">
-        <v>1.056877278498457</v>
+        <v>1.022233619453183</v>
       </c>
       <c r="F7">
-        <v>1.063278036467731</v>
+        <v>1.028666819550587</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041525611112341</v>
+        <v>1.05507767653475</v>
       </c>
       <c r="J7">
-        <v>1.045126024043612</v>
+        <v>1.041943536443404</v>
       </c>
       <c r="K7">
-        <v>1.046194704170011</v>
+        <v>1.046933018703641</v>
       </c>
       <c r="L7">
-        <v>1.059308892427663</v>
+        <v>1.032067996323414</v>
       </c>
       <c r="M7">
-        <v>1.065694248697498</v>
+        <v>1.038428257698442</v>
       </c>
       <c r="N7">
-        <v>1.018936330820008</v>
+        <v>1.017597805907685</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.039260820238153</v>
+        <v>1.016416580599531</v>
       </c>
       <c r="D8">
-        <v>1.0426760079391</v>
+        <v>1.032103199024125</v>
       </c>
       <c r="E8">
-        <v>1.055149941063048</v>
+        <v>1.014532143667006</v>
       </c>
       <c r="F8">
-        <v>1.061438942660979</v>
+        <v>1.02044498785396</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041115295232846</v>
+        <v>1.052533048372991</v>
       </c>
       <c r="J8">
-        <v>1.044235690301386</v>
+        <v>1.037559058510714</v>
       </c>
       <c r="K8">
-        <v>1.045388999540449</v>
+        <v>1.042865185847477</v>
       </c>
       <c r="L8">
-        <v>1.057828997260195</v>
+        <v>1.02551880109623</v>
       </c>
       <c r="M8">
-        <v>1.064101216602942</v>
+        <v>1.031354961102486</v>
       </c>
       <c r="N8">
-        <v>1.018637342535583</v>
+        <v>1.016113205521803</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036864545309502</v>
+        <v>1.003931839249212</v>
       </c>
       <c r="D9">
-        <v>1.04081309861732</v>
+        <v>1.022497403918614</v>
       </c>
       <c r="E9">
-        <v>1.052109276945612</v>
+        <v>1.000246814710271</v>
       </c>
       <c r="F9">
-        <v>1.058201420968949</v>
+        <v>1.005187411273007</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040379611823242</v>
+        <v>1.047696085639715</v>
       </c>
       <c r="J9">
-        <v>1.042658445853765</v>
+        <v>1.029346514063182</v>
       </c>
       <c r="K9">
-        <v>1.04396005497664</v>
+        <v>1.035235724862745</v>
       </c>
       <c r="L9">
-        <v>1.055220184424684</v>
+        <v>1.013335888786612</v>
       </c>
       <c r="M9">
-        <v>1.06129323603498</v>
+        <v>1.018196883290662</v>
       </c>
       <c r="N9">
-        <v>1.018107122607234</v>
+        <v>1.01333126162532</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035264320691502</v>
+        <v>0.9950952163562687</v>
       </c>
       <c r="D10">
-        <v>1.039568330199702</v>
+        <v>1.015711628599584</v>
       </c>
       <c r="E10">
-        <v>1.050084108500756</v>
+        <v>0.9901698987794638</v>
       </c>
       <c r="F10">
-        <v>1.056045052878393</v>
+        <v>0.9944195044404296</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039880635844456</v>
+        <v>1.044209247709773</v>
       </c>
       <c r="J10">
-        <v>1.041601297284982</v>
+        <v>1.023504794707838</v>
       </c>
       <c r="K10">
-        <v>1.043001227810107</v>
+        <v>1.029802883265788</v>
       </c>
       <c r="L10">
-        <v>1.053480129579491</v>
+        <v>1.004718936323828</v>
       </c>
       <c r="M10">
-        <v>1.059420529078927</v>
+        <v>1.008890252799522</v>
       </c>
       <c r="N10">
-        <v>1.017751374320942</v>
+        <v>1.011352064525384</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034570749789636</v>
+        <v>0.9911319964357905</v>
       </c>
       <c r="D11">
-        <v>1.039028658119541</v>
+        <v>1.012672317497681</v>
       </c>
       <c r="E11">
-        <v>1.049207612408062</v>
+        <v>0.9856568664727692</v>
       </c>
       <c r="F11">
-        <v>1.055111752951329</v>
+        <v>0.9895956845666707</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039662549511996</v>
+        <v>1.042631007653451</v>
       </c>
       <c r="J11">
-        <v>1.041142192201742</v>
+        <v>1.020878405512889</v>
       </c>
       <c r="K11">
-        <v>1.042584570129253</v>
+        <v>1.027359145021032</v>
       </c>
       <c r="L11">
-        <v>1.052726433944384</v>
+        <v>1.00085443895804</v>
       </c>
       <c r="M11">
-        <v>1.058609422601158</v>
+        <v>1.00471651499529</v>
       </c>
       <c r="N11">
-        <v>1.017596791653954</v>
+        <v>1.010462247800434</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.034313025759595</v>
+        <v>0.9896378856903676</v>
       </c>
       <c r="D12">
-        <v>1.038828097502085</v>
+        <v>1.011527221470576</v>
       </c>
       <c r="E12">
-        <v>1.048882101924778</v>
+        <v>0.9839562940708229</v>
       </c>
       <c r="F12">
-        <v>1.054765143777901</v>
+        <v>0.9877777956400829</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03958123772208</v>
+        <v>1.042033912804621</v>
       </c>
       <c r="J12">
-        <v>1.040971456148142</v>
+        <v>1.019887356561593</v>
       </c>
       <c r="K12">
-        <v>1.042429582149555</v>
+        <v>1.026436860856598</v>
       </c>
       <c r="L12">
-        <v>1.052446438883318</v>
+        <v>0.9993974590770056</v>
       </c>
       <c r="M12">
-        <v>1.058308106768867</v>
+        <v>1.003142960600936</v>
       </c>
       <c r="N12">
-        <v>1.017539291256664</v>
+        <v>1.010126492679336</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.034368313026433</v>
+        <v>0.9899593971852942</v>
       </c>
       <c r="D13">
-        <v>1.038871123073796</v>
+        <v>1.011773596527952</v>
       </c>
       <c r="E13">
-        <v>1.048951922401132</v>
+        <v>0.984322199080788</v>
       </c>
       <c r="F13">
-        <v>1.054839489962539</v>
+        <v>0.9881689526773387</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039598693176507</v>
+        <v>1.042162493432535</v>
       </c>
       <c r="J13">
-        <v>1.04100808885395</v>
+        <v>1.02010065690734</v>
       </c>
       <c r="K13">
-        <v>1.042462837686563</v>
+        <v>1.026635367946421</v>
       </c>
       <c r="L13">
-        <v>1.052506500582096</v>
+        <v>0.9997109864679045</v>
       </c>
       <c r="M13">
-        <v>1.058372741658186</v>
+        <v>1.003481572927587</v>
       </c>
       <c r="N13">
-        <v>1.017551628978672</v>
+        <v>1.010198755567684</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C14">
-        <v>1.034549448307084</v>
+        <v>0.9910089501785069</v>
       </c>
       <c r="D14">
-        <v>1.039012081806842</v>
+        <v>1.012577999176992</v>
       </c>
       <c r="E14">
-        <v>1.049180704420942</v>
+        <v>0.9855168016514514</v>
       </c>
       <c r="F14">
-        <v>1.055083100925028</v>
+        <v>0.989445961433171</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039655834474355</v>
+        <v>1.042581876866752</v>
       </c>
       <c r="J14">
-        <v>1.041128083271832</v>
+        <v>1.020796806829081</v>
       </c>
       <c r="K14">
-        <v>1.042571763321959</v>
+        <v>1.027283211207022</v>
       </c>
       <c r="L14">
-        <v>1.052703290276094</v>
+        <v>1.000734453063983</v>
       </c>
       <c r="M14">
-        <v>1.058584516466711</v>
+        <v>1.004586928583379</v>
       </c>
       <c r="N14">
-        <v>1.01759204031708</v>
+        <v>1.010434602906239</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.034661038320525</v>
+        <v>0.9916526550142976</v>
       </c>
       <c r="D15">
-        <v>1.039098917557962</v>
+        <v>1.013071445843002</v>
       </c>
       <c r="E15">
-        <v>1.049321672322091</v>
+        <v>0.9862495696796572</v>
       </c>
       <c r="F15">
-        <v>1.055233205525244</v>
+        <v>0.9902292497215911</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039691000711809</v>
+        <v>1.042838814460685</v>
       </c>
       <c r="J15">
-        <v>1.04120198874076</v>
+        <v>1.021223645601841</v>
       </c>
       <c r="K15">
-        <v>1.042638846466279</v>
+        <v>1.027680411040765</v>
       </c>
       <c r="L15">
-        <v>1.052824533656408</v>
+        <v>1.001362143633357</v>
       </c>
       <c r="M15">
-        <v>1.058714993220637</v>
+        <v>1.00526484362135</v>
       </c>
       <c r="N15">
-        <v>1.017616928269687</v>
+        <v>1.010579212503103</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.035310336627259</v>
+        <v>0.9953552390777943</v>
       </c>
       <c r="D16">
-        <v>1.039604132120346</v>
+        <v>1.015911127330922</v>
       </c>
       <c r="E16">
-        <v>1.050142287135646</v>
+        <v>0.9904661154867931</v>
       </c>
       <c r="F16">
-        <v>1.056107001516976</v>
+        <v>0.9947360917508375</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039895066790161</v>
+        <v>1.044312499940533</v>
       </c>
       <c r="J16">
-        <v>1.041631738012467</v>
+        <v>1.02367698038489</v>
       </c>
       <c r="K16">
-        <v>1.043028848797912</v>
+        <v>1.029963071569666</v>
       </c>
       <c r="L16">
-        <v>1.053530144570399</v>
+        <v>1.004972476527156</v>
       </c>
       <c r="M16">
-        <v>1.059474354828648</v>
+        <v>1.009164083221396</v>
       </c>
       <c r="N16">
-        <v>1.017761622042801</v>
+        <v>1.0114104017884</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.035717445863195</v>
+        <v>0.9976401533356948</v>
       </c>
       <c r="D17">
-        <v>1.039920857802078</v>
+        <v>1.017664671040393</v>
       </c>
       <c r="E17">
-        <v>1.050657146042095</v>
+        <v>0.9930697945276623</v>
       </c>
       <c r="F17">
-        <v>1.056655221172035</v>
+        <v>0.9975186729215808</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040022529257054</v>
+        <v>1.045218188988623</v>
       </c>
       <c r="J17">
-        <v>1.041900945676749</v>
+        <v>1.025189319999024</v>
       </c>
       <c r="K17">
-        <v>1.043273090561203</v>
+        <v>1.031369904925134</v>
       </c>
       <c r="L17">
-        <v>1.053972689298759</v>
+        <v>1.007200436354502</v>
       </c>
       <c r="M17">
-        <v>1.059950623483745</v>
+        <v>1.011570349117789</v>
       </c>
       <c r="N17">
-        <v>1.017852239568906</v>
+        <v>1.011922791704106</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.035954841902236</v>
+        <v>0.9989597990422995</v>
       </c>
       <c r="D18">
-        <v>1.040105533030014</v>
+        <v>1.018677806865188</v>
       </c>
       <c r="E18">
-        <v>1.050957494807235</v>
+        <v>0.9945741629996395</v>
       </c>
       <c r="F18">
-        <v>1.05697502933527</v>
+        <v>0.9991262841695058</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040096680460088</v>
+        <v>1.045739903377463</v>
       </c>
       <c r="J18">
-        <v>1.04205783947966</v>
+        <v>1.026062161596395</v>
       </c>
       <c r="K18">
-        <v>1.043415409965244</v>
+        <v>1.032181741561503</v>
       </c>
       <c r="L18">
-        <v>1.054230795145763</v>
+        <v>1.008487215360768</v>
       </c>
       <c r="M18">
-        <v>1.060228402672919</v>
+        <v>1.012960116148679</v>
       </c>
       <c r="N18">
-        <v>1.017905043022653</v>
+        <v>1.012218516526638</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.036035777019028</v>
+        <v>0.9994075822656882</v>
       </c>
       <c r="D19">
-        <v>1.040168491410101</v>
+        <v>1.019021647081217</v>
       </c>
       <c r="E19">
-        <v>1.051059912902821</v>
+        <v>0.9950847362387967</v>
       </c>
       <c r="F19">
-        <v>1.057084082696687</v>
+        <v>0.999671876527623</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040121930955407</v>
+        <v>1.045916698992877</v>
       </c>
       <c r="J19">
-        <v>1.042111314104014</v>
+        <v>1.026358230881682</v>
       </c>
       <c r="K19">
-        <v>1.043463913018566</v>
+        <v>1.032457098237075</v>
       </c>
       <c r="L19">
-        <v>1.054318798753256</v>
+        <v>1.008923854129955</v>
       </c>
       <c r="M19">
-        <v>1.060323114850352</v>
+        <v>1.013431702359376</v>
       </c>
       <c r="N19">
-        <v>1.017923038784688</v>
+        <v>1.012318826741641</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035673773512637</v>
+        <v>0.9973963691708307</v>
       </c>
       <c r="D20">
-        <v>1.039886882911561</v>
+        <v>1.017477540102691</v>
       </c>
       <c r="E20">
-        <v>1.050601902410776</v>
+        <v>0.9927919369913688</v>
       </c>
       <c r="F20">
-        <v>1.056596398183484</v>
+        <v>0.9972217364037111</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0400088739644</v>
+        <v>1.045121699595593</v>
       </c>
       <c r="J20">
-        <v>1.041872075742769</v>
+        <v>1.025028026678519</v>
       </c>
       <c r="K20">
-        <v>1.04324690049368</v>
+        <v>1.031219875544335</v>
       </c>
       <c r="L20">
-        <v>1.053925210837293</v>
+        <v>1.006962726797041</v>
       </c>
       <c r="M20">
-        <v>1.0598995264807</v>
+        <v>1.011313614780784</v>
       </c>
       <c r="N20">
-        <v>1.017842522568195</v>
+        <v>1.011868144402126</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.034496111277817</v>
+        <v>0.9907005022635327</v>
       </c>
       <c r="D21">
-        <v>1.038970575802208</v>
+        <v>1.012341577103556</v>
       </c>
       <c r="E21">
-        <v>1.049113332210008</v>
+        <v>0.9851657047656512</v>
       </c>
       <c r="F21">
-        <v>1.055011361939991</v>
+        <v>0.9890706509321925</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039639016203711</v>
+        <v>1.042458683853401</v>
       </c>
       <c r="J21">
-        <v>1.041092753543517</v>
+        <v>1.020592243608169</v>
       </c>
       <c r="K21">
-        <v>1.042539693590967</v>
+        <v>1.027092847028339</v>
       </c>
       <c r="L21">
-        <v>1.052645341713821</v>
+        <v>1.000433674937925</v>
       </c>
       <c r="M21">
-        <v>1.058522155047301</v>
+        <v>1.004262084326905</v>
       </c>
       <c r="N21">
-        <v>1.017580142436779</v>
+        <v>1.010365298945335</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033755083775325</v>
+        <v>0.9863624844193133</v>
       </c>
       <c r="D22">
-        <v>1.038393864650086</v>
+        <v>1.009018338320749</v>
       </c>
       <c r="E22">
-        <v>1.048177749925057</v>
+        <v>0.9802295993981882</v>
       </c>
       <c r="F22">
-        <v>1.054015132061217</v>
+        <v>0.983793616699474</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039404708196248</v>
+        <v>1.040721139153896</v>
       </c>
       <c r="J22">
-        <v>1.040601582183668</v>
+        <v>1.017713134856267</v>
       </c>
       <c r="K22">
-        <v>1.042093755421613</v>
+        <v>1.024413232448624</v>
       </c>
       <c r="L22">
-        <v>1.051840410478646</v>
+        <v>0.9962031560836345</v>
       </c>
       <c r="M22">
-        <v>1.057655944330071</v>
+        <v>0.9996931098993641</v>
       </c>
       <c r="N22">
-        <v>1.017414701937519</v>
+        <v>1.009389922995648</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.034147972314775</v>
+        <v>0.9886748007388118</v>
       </c>
       <c r="D23">
-        <v>1.038699646423605</v>
+        <v>1.010789317853237</v>
       </c>
       <c r="E23">
-        <v>1.048673688550943</v>
+        <v>0.9828603352148491</v>
       </c>
       <c r="F23">
-        <v>1.054543220767422</v>
+        <v>0.9866061707528452</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039529086610953</v>
+        <v>1.041648446127561</v>
       </c>
       <c r="J23">
-        <v>1.040862073568876</v>
+        <v>1.019248286435463</v>
       </c>
       <c r="K23">
-        <v>1.042330278056443</v>
+        <v>1.02584209139811</v>
       </c>
       <c r="L23">
-        <v>1.052267142191559</v>
+        <v>0.9984582680127752</v>
       </c>
       <c r="M23">
-        <v>1.058115159204251</v>
+        <v>1.002128628509296</v>
       </c>
       <c r="N23">
-        <v>1.01750244985054</v>
+        <v>1.009909987778699</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.035693507365003</v>
+        <v>0.997506565137916</v>
       </c>
       <c r="D24">
-        <v>1.039902234904337</v>
+        <v>1.017562126349599</v>
       </c>
       <c r="E24">
-        <v>1.050626864504616</v>
+        <v>0.9929175329556386</v>
       </c>
       <c r="F24">
-        <v>1.056622977632763</v>
+        <v>0.9973559567519118</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040015044807258</v>
+        <v>1.045165319223887</v>
       </c>
       <c r="J24">
-        <v>1.041885121226106</v>
+        <v>1.025100936797798</v>
       </c>
       <c r="K24">
-        <v>1.043258735098494</v>
+        <v>1.031287694326418</v>
       </c>
       <c r="L24">
-        <v>1.05394666438073</v>
+        <v>1.007070176810928</v>
       </c>
       <c r="M24">
-        <v>1.059922615078799</v>
+        <v>1.011429664401414</v>
       </c>
       <c r="N24">
-        <v>1.01784691342381</v>
+        <v>1.011892846857401</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037484512910459</v>
+        <v>1.007245210894774</v>
       </c>
       <c r="D25">
-        <v>1.04129520337569</v>
+        <v>1.025044773588151</v>
       </c>
       <c r="E25">
-        <v>1.052895007645463</v>
+        <v>1.004031700008105</v>
       </c>
       <c r="F25">
-        <v>1.059038036558031</v>
+        <v>1.009230749819595</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040571304478557</v>
+        <v>1.048990820108337</v>
       </c>
       <c r="J25">
-        <v>1.043067195399251</v>
+        <v>1.031531180975649</v>
       </c>
       <c r="K25">
-        <v>1.044330562354232</v>
+        <v>1.037266355427888</v>
       </c>
       <c r="L25">
-        <v>1.05589476387239</v>
+        <v>1.016567749774274</v>
       </c>
       <c r="M25">
-        <v>1.062019282539331</v>
+        <v>1.021687440560131</v>
       </c>
       <c r="N25">
-        <v>1.018244596505922</v>
+        <v>1.014071394224962</v>
       </c>
     </row>
   </sheetData>
